--- a/data/trans_orig/FINALC_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E9FF10-88B4-4C0F-9132-29D18AE57958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1B1A99-8FFC-4588-A3A2-D22167044BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DDF7F81-0114-4745-8F27-218A56A06963}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77D7C7B6-59AC-405B-A43D-96C0F5CBCFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="282">
   <si>
     <t>Población según el nivel de compresión del cuestionario en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -95,757 +95,751 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>17,82%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>19,18%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,41%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>19,53%</t>
@@ -854,37 +848,37 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE90A8BB-5B18-47B0-B1FE-9533994F38D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176DC616-2DFC-405D-94C8-C9CED6760430}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,10 +1743,10 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1761,13 +1755,13 @@
         <v>39028</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1776,13 @@
         <v>188580</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -1797,13 +1791,13 @@
         <v>230604</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -1812,13 +1806,13 @@
         <v>419184</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1827,13 @@
         <v>314668</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>366</v>
@@ -1848,13 +1842,13 @@
         <v>300263</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>585</v>
@@ -1863,13 +1857,13 @@
         <v>614932</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,7 +1919,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1943,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1973,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1982,13 @@
         <v>6153</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -2003,13 +1997,13 @@
         <v>13575</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>27</v>
@@ -2018,13 +2012,13 @@
         <v>19728</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2033,13 @@
         <v>32449</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -2054,13 +2048,13 @@
         <v>43855</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -2069,13 +2063,13 @@
         <v>76304</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2084,13 @@
         <v>283637</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>451</v>
@@ -2105,13 +2099,13 @@
         <v>315854</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -2120,13 +2114,13 @@
         <v>599492</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2176,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2200,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2209,13 +2203,13 @@
         <v>3082</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2224,13 +2218,13 @@
         <v>4749</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2239,13 @@
         <v>6434</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2260,13 +2254,13 @@
         <v>16485</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -2275,13 +2269,13 @@
         <v>22919</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2290,13 @@
         <v>29908</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -2311,13 +2305,13 @@
         <v>35268</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -2326,13 +2320,13 @@
         <v>65176</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2341,13 @@
         <v>284230</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>492</v>
@@ -2362,13 +2356,13 @@
         <v>373721</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>728</v>
@@ -2377,13 +2371,13 @@
         <v>657952</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2433,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2457,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2472,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2487,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2496,13 @@
         <v>1232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2517,13 +2511,13 @@
         <v>3951</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2532,13 +2526,13 @@
         <v>5183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2547,13 @@
         <v>133034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>386</v>
@@ -2568,13 +2562,13 @@
         <v>180034</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>578</v>
@@ -2583,13 +2577,13 @@
         <v>313069</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2598,13 @@
         <v>62481</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>96</v>
@@ -2619,13 +2613,13 @@
         <v>47511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -2634,13 +2628,13 @@
         <v>109992</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2690,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2729,7 +2723,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2744,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2753,13 @@
         <v>1266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2774,13 +2768,13 @@
         <v>1876</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2789,13 +2783,13 @@
         <v>3142</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2804,13 @@
         <v>4522</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -2825,13 +2819,13 @@
         <v>6662</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -2840,13 +2834,13 @@
         <v>11184</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2855,13 @@
         <v>270240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>439</v>
@@ -2876,13 +2870,13 @@
         <v>267084</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>797</v>
@@ -2891,13 +2885,13 @@
         <v>537324</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,7 +2947,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2971,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2986,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2995,13 +2989,13 @@
         <v>160</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3010,13 @@
         <v>5007</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -3031,13 +3025,13 @@
         <v>8714</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -3046,13 +3040,13 @@
         <v>13721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3061,13 @@
         <v>115547</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>126</v>
@@ -3082,13 +3076,13 @@
         <v>88022</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -3097,13 +3091,13 @@
         <v>203569</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3112,13 @@
         <v>507041</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>818</v>
@@ -3133,13 +3127,13 @@
         <v>707467</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>1295</v>
@@ -3148,13 +3142,13 @@
         <v>1214507</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3204,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3228,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3243,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3258,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3267,13 @@
         <v>7090</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H40" s="7">
         <v>13</v>
@@ -3288,13 +3282,13 @@
         <v>8128</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -3303,13 +3297,13 @@
         <v>15219</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3318,13 @@
         <v>87802</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>126</v>
@@ -3339,13 +3333,13 @@
         <v>99590</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M41" s="7">
         <v>210</v>
@@ -3354,13 +3348,13 @@
         <v>187392</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3369,13 @@
         <v>764536</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H42" s="7">
         <v>923</v>
@@ -3390,13 +3384,13 @@
         <v>760716</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M42" s="7">
         <v>1595</v>
@@ -3405,13 +3399,13 @@
         <v>1525251</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3473,13 @@
         <v>1827</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="H44" s="7">
         <v>8</v>
@@ -3494,13 +3488,13 @@
         <v>3802</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -3509,13 +3503,13 @@
         <v>5629</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3524,13 @@
         <v>43231</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="H45" s="7">
         <v>136</v>
@@ -3545,13 +3539,13 @@
         <v>77115</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M45" s="7">
         <v>188</v>
@@ -3560,13 +3554,13 @@
         <v>120346</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3575,13 @@
         <v>602866</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H46" s="7">
         <v>1125</v>
@@ -3596,13 +3590,13 @@
         <v>695967</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M46" s="7">
         <v>1772</v>
@@ -3611,13 +3605,13 @@
         <v>1298833</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3626,13 @@
         <v>2736110</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H47" s="7">
         <v>4094</v>
@@ -3647,13 +3641,13 @@
         <v>3030680</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M47" s="7">
         <v>6767</v>
@@ -3662,13 +3656,13 @@
         <v>5766789</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,7 +3718,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALC_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1B1A99-8FFC-4588-A3A2-D22167044BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB67CD53-AB2C-4C0D-9244-BC0AED3A2418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77D7C7B6-59AC-405B-A43D-96C0F5CBCFD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2776FEB9-2330-4702-9E79-701E847B6F87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176DC616-2DFC-405D-94C8-C9CED6760430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFC3983-AA3F-4C20-931E-A211518B3183}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
